--- a/premise/data/additional_inventories/lci-wind-turbine-magnet-eol.xlsx
+++ b/premise/data/additional_inventories/lci-wind-turbine-magnet-eol.xlsx
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71445A8A-5E5F-4514-825B-63E0B94DFF65}">
   <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
